--- a/backend/PromoskopExcelParser/excel/LIST_4.xlsx
+++ b/backend/PromoskopExcelParser/excel/LIST_4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="432">
   <si>
     <t>DONDURULMUŞ MANTI KAYSERI 450 G NİMET</t>
   </si>
@@ -703,13 +703,622 @@
   </si>
   <si>
     <t>KAHVE INS. 501ARADA SÜT.KÖPÜKLÜ NESCAFE</t>
+  </si>
+  <si>
+    <t>http://666kb.com/i/c0dqhi87pvq2dkwve.jpg</t>
+  </si>
+  <si>
+    <t>http://img.docstoccdn.com/thumb/orig/166178946.png</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/_-G4-v-jGyH0/S0Yf2-Tzk7I/AAAAAAAABYY/PuPsvwXVV-Q/s400/P1090976.JPG</t>
+  </si>
+  <si>
+    <t>http://www.portakalagaci.com/photos/diyarbakir_yemekleri/8.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/medium/17555632.jpg</t>
+  </si>
+  <si>
+    <t>http://content.ebrosur.com/_Brochures/621359/49/66/6831eaa0-df39-4a7c-bfdc-a1a83d6ac397.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-omlYtUG8TVM/TxnqKOyWUCI/AAAAAAAACtI/uAgWVkbMPSA/s1600/resim1xl5.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//smallest/17555630_smallest.jpg</t>
+  </si>
+  <si>
+    <t>http://www.habergazetesi.com.tr/img/bc4914b0-c1fb-485a-b98e-8e794fc093e4-b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.gurmenet.com/images/products/00/47/62/4762_buyuk.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-E0aynUFFS-E/VCVbntTQKpI/AAAAAAAAJXo/RcQsGiELBKA/s1600/20140618_195558.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/134159.png</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/111517.png</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/10938/tn70/109385171_tn70_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/happyimages00/flexilife_naftalin_tablet_100gr-600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mert.ro/detergent-sapun/FAMILY%25205X75%2520GUL.jpg</t>
+  </si>
+  <si>
+    <t>http://www.armastil.com/modules/catalog/products/pr_01_9051_min.jpg%3Frev%3D1391442027</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/60678/ace-camasir-suyu-2lt-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_1_temmuz_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://www.pay.com.tr/images/products/00/37/19/3719_buyuk.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_2102332.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun//large/30581216_large.jpg</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/416c%252BYAXumL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/419025.png</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/200/Taris_1157786.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/300/Taris_1857580.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketpaketi.com/modules/catalog/products/pr_01_1191_min.jpg%3Frev%3D1404401808</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/yumos_yumusatici_extra720_ml_lilyum_lotus_cceg_64598.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.indirimkampanyalari.org/icerik/uploads/2013/10/%25C3%2596zel-Kampanyal%25C4%25B1-Fiyata-Sahip-Brid-101-Adet-Bula%25C5%259F%25C4%25B1k-Makinesi-Tableti-A101de_023459600-1382616780.jpg%3Fb57e79</t>
+  </si>
+  <si>
+    <t>http://bilginsupermarket.com/image/cache/data/%25C3%25BCr%25C3%25BCnler/Perwoll_TR_1L_CO_pboxx-pixelboxx-118445_300dpi_1772H_1772W-550x650.png</t>
+  </si>
+  <si>
+    <t>http://www.bulasikeldiveni.com/upload/vileda-standart-eldiven.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn4.n11.com.tr/n6/1024/14/03/20/65/86/82/52/05/60/82/02/98/96757601152070955923.jpg</t>
+  </si>
+  <si>
+    <t>http://www.vatankimya.net/upload_images/VATAN-BULASIK-DETERJANI-750-ML--NAR-CICEGI2010422910.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-ogB0I7Yaxr0/Ugj2t8DspxI/AAAAAAABVVo/noETgKV0bEc/s1600/a101_15_agustos%2B2013-4.jpg</t>
+  </si>
+  <si>
+    <t>http://s4.ozncdn.com/product/003/156/74-247934-w300h250.jpg</t>
+  </si>
+  <si>
+    <t>http://www.indirdik.com/products/14753/Flip-Cover-Cep-Telefonu-Kilifi-Samsung-Galaxy-SIV-Mini-Uyumlu-1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.henkel.com.tr/trt/content_images/Bref_SVR_pine_final_203554_print_1772H_1772W.png</t>
+  </si>
+  <si>
+    <t>http://www.uygunadim.com/SiteContents/Products/3650016137_2.jpg</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/bingo/bingo-fresh-pembe-dusler-1-lt_8-l.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-ZEN-9tHUrog/UkIAiQ-8JYI/AAAAAAAAEQE/zUgm48n-J3A/s1600/a10126eylul-1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.mercankurumsal.com/FB,492,42,pril-bulasik-makinasi-jel-deterjani-1500-ml-ev-tipi-bulasik-makinesi-detar-finish.jpg</t>
+  </si>
+  <si>
+    <t>http://kampanyabul.org/img/sok-indirimleri.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/medium/29547644.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/bingo_krec_onleyc_500gr500gr_53368.jpeg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/calgon_krec_onleyc_550_gr_53752.jpeg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_3401381.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/30711223_large.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_3892158.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/medium/31315431.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketbizden.com/yonetim/resim/urunler/kucuk/abc_yumusatici_konsantre_750ml_altin_CTz9JU.jpg</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/HAPPY/S.brite_Ultra_Konfor_X2_Klasik_-600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozak-temizlik.com/FileUpload/bs139771/UrunResim/3764431.jpg</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/HAPPY/H.sakir_Sab.4x175gr_Beyaz_Leylak_-600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/134141.png</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/52567/sir-kirec-ve-pas-cozucu-por-coz-1-litre-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/200/Taris_2856608.jpg</t>
+  </si>
+  <si>
+    <t>http://kimkapinda.com/16229-4363-thickbox/cif-krem-750ml-amonyak.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_3950842.jpg</t>
+  </si>
+  <si>
+    <t>http://www.atakentmarket.com/admin/PICS/products/big_crop_ariel_10_kg_konsantre.jpg</t>
+  </si>
+  <si>
+    <t>http://www.temizler.com.tr/icerik/bilgi_resim_liste/213.JPG</t>
+  </si>
+  <si>
+    <t>http://images.bizde.com/357/tn408/vileda-bulasik-altligi-xl-50x30cm-mb146851_3572511_r1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.evimmarketim.com/image/cache/data/demo/ev-temizleyiciler/ahsap-temizleyiciler/pronto-ahsap-temizleyici-750-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/13079/tn24/130793587_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kucukpazar.com/UserFiles/Product/Vileda-5li-Glitzi-Yesil-Oluklu-Bulasik-Sungeri.jpg</t>
+  </si>
+  <si>
+    <t>http://www.efetemizlik.com/34-84-thickbox/calgonit-bulaik-makinesi-tuzu-1500gr.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozgrup41.com/image/cache/data/bulasik/calgonit_par_400ml-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Oyuncak/200/Oyuncak_3454487.jpg</t>
+  </si>
+  <si>
+    <t>http://image.bilio.com/data/products/160327419/f-dalan-zeytinya-l-banyo-sabunu-175-gr-4-l-paket.jpg</t>
+  </si>
+  <si>
+    <t>http://www.botamarket.com/resimler/botanik/Mavala-Mava-Eller-icin-Yogun-Bak_14079_1.jpg</t>
+  </si>
+  <si>
+    <t>http://i01.i.aliimg.com/wsphoto/v0/1740171133/2014-New-font-b-Fishing-b-font-Outdoor-sports-West-wind-concentrated-additive-Vanilla-font-b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kucukpazar.com/UserFiles/Product/Royal-Windsor-Cmg-004-Iki-Katli-Kare-Cam-Meyvelik.jpg</t>
+  </si>
+  <si>
+    <t>http://www.sarfmarket.com.tr/FB,2256,16,selpak-collection-desenli-pecete-20-li-peceteler-selpak.jpg</t>
+  </si>
+  <si>
+    <t>http://softtem.com/kagit/tuvaletkagit/Papia3Katli-24Rulo-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_30_aralik_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://webdenal.s3.amazonaws.com/catalog_original/605943.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_2660357.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ataecza.com/image/cache/data/kadin/ob-pro-comfort-mini-tampon-light-days-16-adet-280x280.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-n8i25O11v6c/UfgVsu3d-RI/AAAAAAABTkw/E9DkzUVAoJg/s1600/005.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/200/Taris_3122345.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmetikeczanemizde.com/pictures/20141311559_sg_1447974.jpg</t>
+  </si>
+  <si>
+    <t>http://www.dermobakim.com/images_buyuk/f97/Kotex-Lightdays-Gunluk-Ped-Aloe-_8197_1.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12142/tn24/121423796_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ceybebe.com/UrunResimleri/MOL5025356/500x500/Molfix-Ikiz-1-Yenidogan-44-lu-61514.jpg</t>
+  </si>
+  <si>
+    <t>http://www.piyex.com/libs/urun/670/2da13055974b0ab1cae5c20b6dc90eaf_1.jpg</t>
+  </si>
+  <si>
+    <t>http://images.ticiz.com/909931_w640_h640_cid120621_pid447977-0cac0885.png</t>
+  </si>
+  <si>
+    <t>http://img200.imageshack.us/img200/7840/loocksannebeb49b121026e.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_26_nisan_2010_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmopoli.com/uploads/urun_resimleri/productimage-picture-kotex-ultra-drysoft-ultra-kanatli-gece-7-adet-pamuklu-gece-pedi-66257jpg.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmopoli.com/uploads/urun_resimleri/productimage-picture-kotex-secret-ultra-normal-10-adet-gunluk-ped-66248jpg.jpg</t>
+  </si>
+  <si>
+    <t>http://kurumsalihtiyac.com/FB,283,28,solo-pecete-30x30-cm-100lu-peceteler-solo.jpg</t>
+  </si>
+  <si>
+    <t>https://img-asset-ebebek.mncdn.com/www.ebebek/i/p/hd/89/lPRI-70489_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bezpaketi.com/image/cache/data/bebekbezleri/pybmi254-630x552.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmopoli.com/uploads/urun_resimleri/productimage-picture-prima-aktif-bebek-maxi-ekonomi-ikiz-paket-40li-no4-bebek-bezi-68009jpg.jpg</t>
+  </si>
+  <si>
+    <t>http://media251.pampers-gorodok.ru/tr_TR/images/pc/hb/lsp/products/prod_image_main_diaper_activebaby.png</t>
+  </si>
+  <si>
+    <t>https://img-asset-ebebek.mncdn.com/www.ebebek/i/p/hd/32/lXXX-31832_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_3_mart_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/orta/10206__596.jpg</t>
+  </si>
+  <si>
+    <t>http://www.durexprezervatif.net/image/cache/data/select-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.indirdik.com/products/9270/derby_1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/631001.png</t>
+  </si>
+  <si>
+    <t>http://www.namlihipermarketleri.com.tr/aspjpeg.asp%3Fresim%3DASETON.jpg%26height%3D129%26width%3D150</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/534002.png</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/538009.png</t>
+  </si>
+  <si>
+    <t>http://www.heithalat.com/image/data/urunler1/2-adet-cilek-seklinde-saklama-kabi-a7549.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_12_nisan_2010.jpg</t>
+  </si>
+  <si>
+    <t>http://www.guzellikdukkani.com/pictures/75786.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/9Oi0k1U.jpg</t>
+  </si>
+  <si>
+    <t>http://www.dermoks.com/1606-home_default/veet-tuy-dokucu-sprey-krem-normal-ciltler-150-ml.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-G8FB_upNFm4/Uks1pUCmyFI/AAAAAAAAFAQ/J_u8Cl9S-zU/s1600/gabrini%2B367.JPG</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/colgate/colgate-total-clean-mint-50-ml-z.jpg</t>
+  </si>
+  <si>
+    <t>http://magento.bilmiyorum.com/media/catalog/product/cache/2/image/1024x1024/9df78eab33525d08d6e5fb8d27136e95/a/v/avene-tolerance-extreme-creme-50-ml-asiri-hassas-cilt-icin-koruyucu-krem.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_2_subat_2009.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/orta/25201_a101_2_739.jpg</t>
+  </si>
+  <si>
+    <t>http://www.bioblas.gen.tr/image/cache/data/Bioblas%2520Vital%2520Effect%2520%25C5%259Eampuan-400x400.png</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12857/tn24/128577147_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.eczanemizde.com/images/products/00/87/36/8736_buyuk_zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/SG/1500/SG_2553247.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cekilishaber.com/upload/71659363526.jpg</t>
+  </si>
+  <si>
+    <t>http://imbbpullzone.laedukreationpvt.netdna-cdn.com/wp-content/uploads/2012/07/Karma-komba.jpg</t>
+  </si>
+  <si>
+    <t>http://www.starling-emarket.com/FB,5479,24,camsakizi-ilik-agda-270-gr-agdalar.jpg</t>
+  </si>
+  <si>
+    <t>http://hergunyeniurun.com/Gillette-Blue-3-Ice-Kullan-At-Tiras-Bicagi-3lu-hergunyeniurun-com-2001x3379x14594_orj.jpg</t>
+  </si>
+  <si>
+    <t>https://lh5.googleusercontent.com/-C01lqO-HYVE/U07M-2lTxTI/AAAAAAAABSA/XlMQb_Zgv2A/s640/blogger-image--1263421213.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn01.cimri.com/pictures/n/90/689/689797_.jpg</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/HAPPY/Palmolive_Dus_Jeli_250ml_Anti-stres_-600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/signal/signal-white-now-ice-cool-mint-75-ml-z.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_29_mart_2010.jpg</t>
+  </si>
+  <si>
+    <t>http://www.buzlusu.com/wp-content/uploads/2012/11/a101-8-kasim-2012-firsat-urunler-1.jpg</t>
+  </si>
+  <si>
+    <t>http://images3.sanalmarket.com.tr/images/1000/urun//large/34014033_large.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-zvzKVrBmreQ/U99HHSylaPI/AAAAAAAAFeU/rpSMNAhTOZs/s1600/DSCF5017.JPG</t>
+  </si>
+  <si>
+    <t>https://www.maviburada.com/image/cache/data/loreal-3-etkili-yogun-nemlendiren-normal-ve-karma-cilt-50-ml-341-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.saglikhome.com/images/products/00/89/85/8985_buyuk_zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/SG/300/SG_1116892.jpg</t>
+  </si>
+  <si>
+    <t>http://www.reyon10.com/image/cache/data/Dove%2520El%26v%25C3%25BCcut%2520Bak%25C4%25B1m%2520Kremi%2520Or%25C4%25B1g%25C4%25B1nal%2520Body%2520S%25C4%25B1lk%2520150%2520Ml-1000x1000.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12591/tn24/125914642_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.dermobakim.com/images_buyuk/f79/Colgate-Zigzag-Dis-Fircasi_7679_1.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-HnDvYEYQ9wk/UanJvJ31X8I/AAAAAAAAEa8/v10oLttc874/s1600/DSCN5855.JPG</t>
+  </si>
+  <si>
+    <t>http://www.ecemendustriyel.com.tr/siparis/stok/537014.png</t>
+  </si>
+  <si>
+    <t>http://i253.photobucket.com/albums/hh67/parisbeaverbanks/beauty/maybelline2.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmetikcim.com/images/Products/p_5770_b.jpg</t>
+  </si>
+  <si>
+    <t>http://31.169.89.95/pictures/3429.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozdilekteyim.com/content/images/thumbs/elseve_sampuan_650ml_colorvive_49421.jpeg</t>
+  </si>
+  <si>
+    <t>http://i00.i.aliimg.com/wsphoto/v1/1594337242_1/discount-family-Oral-Hygiene-Dental-Care-tooth-font-b-whiten-b-font-font-b-Electric-b.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kidstoothbrushes.net/tr/productpic/pb_1yyp1340335704.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/SG/1500/SG_2553401.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ofistic.com/wp-content/uploads/2014/07/colgate-dis-fircasi-360%25C2%25B0-11-hassas-dislere-profe__1394712956.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmela.com/ProductImages/91089/big/arkomentiraskolonyasi250ml-cool.jpg</t>
+  </si>
+  <si>
+    <t>http://www.aldido.com/FB,205178,18,gillette-blue3-yedek-tiras-bicagi-3-lu.jpg</t>
+  </si>
+  <si>
+    <t>http://www.yakala.co/Images/Products/Temp/arteticaret-500x250-a.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kozmotrend.com/media/catalog/product/cache/1/image/c417ced0bdeec43197eb7dd0c4c6f7af/g/a/garnier-saf-ve-temiz-temizleme-jeli.jpg</t>
+  </si>
+  <si>
+    <t>http://i.hizliresim.com/MYGdqk.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/SG/1500/SG_2612475.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12496/tn24/124963156_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://img-avansas.mncdn.com/assets/58918/selin-limon-kolonyasi-sprey-150-ml-0-zoom.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/SG/1500/SG_2553208.jpg</t>
+  </si>
+  <si>
+    <t>http://akakce.cubecdn.net/gillette/gillette-mach3-turbo-4%27lu-yedek_2-x.jpg</t>
+  </si>
+  <si>
+    <t>http://i01.i.aliimg.com/photo/v0/60016391527/2014_new_300ml_800ml_elidor_shampoo.jpg_120x120.jpg</t>
+  </si>
+  <si>
+    <t>http://img.ofix.com/UserFiles/Document/Original-Sem-Pet-Bardak-Seffaf-95-400-ml-25-li-S82120-866.JPG</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-ZoeoOEY31aw/UoFQuN_ZNEI/AAAAAAAAJUU/ChRSdYCJhq8/s1600/d8e5475d-a6e2-4db2-9322-df2e7f1f3b00.jpg</t>
+  </si>
+  <si>
+    <t>http://i.dailymail.co.uk/i/pix/2014/08/29/article-2737827-20E6688700000578-702_306x423.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-ewIXFy_Jwik/U2NXl0HykjI/AAAAAAAAAUM/J51Cqubbeco/s1600/co2.png</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-ipJspnNHe8g/U2NZPWoL9jI/AAAAAAAAAUs/oYbhEKoKQC4/s1600/%25C3%25A7ocuk%2B%25C3%25A7orap.png</t>
+  </si>
+  <si>
+    <t>http://www.kucukpazar.com/UserFiles/Document/SILVER-S-PS1007-01-HAZNELI-SIYAH-PARLATICI-SUNGER--752.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-xO9jLUbH1Vk/U2NXk_xfBWI/AAAAAAAAAUA/UFo3xU4Oyqs/s1600/caor1.png</t>
+  </si>
+  <si>
+    <t>http://images.gittigidiyor.com/8179/Jolidon-Dantelli-Toparlayici-Sutyen-JD1451__81799657_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.happy.com.tr/image/cache/data/happyimages00/koroplast_strec_film_15mt-600x600.jpg</t>
+  </si>
+  <si>
+    <t>http://images.hepsiburada.net/assets/Taris/1500/Taris_2457345.jpg</t>
+  </si>
+  <si>
+    <t>http://cdn2.n11.com.tr/n5/1024/13/11/25/47/64/89/24/50/52/60/14/04/46349145577262071549.jpg</t>
+  </si>
+  <si>
+    <t>http://www.ozkuruslar.com.tr/kampanya/images/13.002.013.00463.jpg</t>
+  </si>
+  <si>
+    <t>http://2.bp.blogspot.com/-faNzbwNqfmI/U1qqAsybPQI/AAAAAAAAK_s/KGeGPDSIWv4/s1600/a101-silk%26blue-4.jpg</t>
+  </si>
+  <si>
+    <t>http://i00.i.aliimg.com/wsphoto/v1/599713034_4/Ice-silk-sky-blue-sexy-men-s-boxer-underwear-Boxer-Shorts.jpg</t>
+  </si>
+  <si>
+    <t>http://www.tekzen.com.tr/insert/images/1/846222.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-tY2IlnKyo8c/U2NXnwxJYSI/AAAAAAAAAUY/qzwRJRa97nY/s1600/cor3.png</t>
+  </si>
+  <si>
+    <t>http://www.webrehberi.net/upload/93562.jpg</t>
+  </si>
+  <si>
+    <t>http://www.marketpaketi.com/modules/catalog/products/pr_01_285_max.jpg%3Frev%3D1401202993</t>
+  </si>
+  <si>
+    <t>http://i.ytimg.com/vi/i0luYyY0RUI/hqdefault.jpg</t>
+  </si>
+  <si>
+    <t>http://www.partiperi.com/ProductImages/94809/big/dg-872lisanslibesiktaskopukbaloncuk.jpg</t>
+  </si>
+  <si>
+    <t>http://ucuzluktakip.com/wp-content/uploads/a101-20mart2014-1.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-1CEy1kN4Gg0/U2NXlLrD0kI/AAAAAAAAAUE/X0ueuA9afok/s1600/bayan%2Batlet.png</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-ZwgEdJ5rPHw/U2NXoMA7JsI/AAAAAAAAAUc/ngsz4uz7lLs/s1600/slip.png</t>
+  </si>
+  <si>
+    <t>https://imgv2-1-f.scribdassets.com/img/word_document/123796992/164x212/ea3946e2e0/1411461736</t>
+  </si>
+  <si>
+    <t>http://www.korsanoyun.com/data/img/balon_patlat_karma.jpg</t>
+  </si>
+  <si>
+    <t>http://market.happy.com.tr/image/cache/data/items/TOKAI_M12L_TEKLI_DOKME_KULLAN_AT_TASLI_CAKMAK-500x500.jpg</t>
+  </si>
+  <si>
+    <t>http://www.firmasayfasi.com/resimler/urun/large/cikolata-dolgulu-cakil-tasi-100-gr-9l2od-51285.jpg</t>
+  </si>
+  <si>
+    <t>http://mcdn01.gittigidiyor.net/12989/tn24/129896005_tn24_0.jpg</t>
+  </si>
+  <si>
+    <t>http://www.alisverisrehberi.com/haber/upload/806_kurban_bayrami_854.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/e255fb22a66c0689252a4afa5a9b9fb91b47c191.jpg</t>
+  </si>
+  <si>
+    <t>http://i20.photobucket.com/albums/b209/ipekEmre/100_2956.jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/torku%2520frambuazli%2520baton%2520(1).jpg</t>
+  </si>
+  <si>
+    <t>http://www.cikolataport.com/media/uploads/watermarked/357df4d25ab668c297fb5edd81c4d0712138d99a.jpg</t>
+  </si>
+  <si>
+    <t>http://antepsan.com/image/logo.png</t>
+  </si>
+  <si>
+    <t>http://i00.i.aliimg.com/photo/v3/139936518/Twix_Chocolate_Bars_50_g.jpg</t>
+  </si>
+  <si>
+    <t>http://videoaktif.net/preview/74/00000000004.jpg</t>
+  </si>
+  <si>
+    <t>https://image.marketservisi.com/productphotos/373/super-market/cikolata-biskuvi-sekerleme/cikolata/1004154425236174618.jpg</t>
+  </si>
+  <si>
+    <t>http://ecx.images-amazon.com/images/I/51PMqniNzYL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>http://www.kredikartlari.net/image/kampanya/a101_3_subat_2010.jpg</t>
+  </si>
+  <si>
+    <t>http://www.habergazetesi.com.tr/img/dce137ee-b96a-4ab6-93b9-fdcefe33a280-b.jpg</t>
+  </si>
+  <si>
+    <t>http://4.bp.blogspot.com/-EcToKE2-15M/U4c7U1iFnnI/AAAAAAAASEg/YPk1Tiu3edE/s320/LG_G3_Metalik_Kavisli_Tasarim_Akilli_Sadelik.jpg</t>
+  </si>
+  <si>
+    <t>http://3.bp.blogspot.com/-WccaAh7KsaE/UlqGmPzHpGI/AAAAAAAAHeY/5hKcOJsmEds/s1600/DSC_0961.JPG</t>
+  </si>
+  <si>
+    <t>http://img6.mynet.com.tr/hbr/20131205/034330494/kadin-640x360.jpg</t>
+  </si>
+  <si>
+    <t>http://photos1.blogger.com/x/blogger/7475/1640/1600/256863/PICT0038.jpg</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-xnbNf80ALN4/UxcgOgoCoQI/AAAAAAAACBc/2KLrOSOHQS4/s1600/101_1282.JPG</t>
+  </si>
+  <si>
+    <t>http://www.botamarket.com/resimler/botanik/Avicenna-Zeytinyagli-Kudret-Nari_13843_1.jpg</t>
+  </si>
+  <si>
+    <t>http://images1.sanalmarket.com.tr/images/1000/urun/large/03222621_large.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,6 +1326,12 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -736,14 +1351,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,1848 +1660,2492 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B229" sqref="B1:B229"/>
+    <sheetView tabSelected="1" topLeftCell="C178" workbookViewId="0">
+      <selection activeCell="C195" sqref="C195:C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="208.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>21000005</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21000006</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21000008</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21000009</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21000101</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21000251</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21000531</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21000556</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21000559</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21000560</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21000561</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21000564</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21000613</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21000631</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>22000017</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>22000019</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>22000028</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22000039</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22000040</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22000044</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22000101</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22000142</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22000202</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22000233</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22000251</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22000271</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22000291</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22300301</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>22000351</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22000361</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>22000382</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>22000384</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22000492</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22000525</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>22000526</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22000527</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22000562</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22000576</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>22000601</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22000612</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22000631</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22000653</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22000681</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22000712</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22000726</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22000733</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22000761</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22000771</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22000772</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22000796</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22000811</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22000812</v>
       </c>
       <c r="B52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>22000813</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>22000821</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22000832</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22000852</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22000860</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22000865</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22000868</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22000886</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22000895</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>22000899</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>22000900</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22000901</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22000913</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>22000914</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>22000921</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>22200926</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>22000941</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>22200977</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>22000982</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>22000983</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22000987</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>22000988</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>22001000</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22001001</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>22001018</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22001019</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>23000017</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>23000021</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23000028</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>23000081</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>23000082</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>23000111</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>23000112</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>23000121</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23000161</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>23000191</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>23000251</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>23000311</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>23000361</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>23000401</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>23000471</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>23000551</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>23000557</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>23000562</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23000563</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>23000567</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>23000576</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>23000601</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>23000603</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23000604</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23000609</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23000610</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23000611</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>23000612</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23000613</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>24000001</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>24000013</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>24000017</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>24000039</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>24000091</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>24000222</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24000324</v>
       </c>
       <c r="B114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>24000327</v>
       </c>
       <c r="B115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>24000333</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>24000334</v>
       </c>
       <c r="B117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>24000483</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24000501</v>
       </c>
       <c r="B119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>24000505</v>
       </c>
       <c r="B120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>24000511</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>24000545</v>
       </c>
       <c r="B122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>24000546</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24000562</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24000585</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24000625</v>
       </c>
       <c r="B126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24000662</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24000681</v>
       </c>
       <c r="B128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24000682</v>
       </c>
       <c r="B129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24000683</v>
       </c>
       <c r="B130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24000731</v>
       </c>
       <c r="B131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24000841</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24000842</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24000946</v>
       </c>
       <c r="B134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24000983</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24001071</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24001072</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24001111</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24001165</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24001214</v>
       </c>
       <c r="B140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24001261</v>
       </c>
       <c r="B141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24001293</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24001300</v>
       </c>
       <c r="B143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24001316</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24001319</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24001320</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24001332</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24001333</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24001345</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24001346</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24001354</v>
       </c>
       <c r="B151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24001366</v>
       </c>
       <c r="B152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24001367</v>
       </c>
       <c r="B153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24001376</v>
       </c>
       <c r="B154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24001385</v>
       </c>
       <c r="B155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24001386</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24001395</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24001404</v>
       </c>
       <c r="B158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24001405</v>
       </c>
       <c r="B159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24001413</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24001419</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24001424</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24001459</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24001462</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24001463</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24001511</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24001512</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24001519</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24001520</v>
       </c>
       <c r="B169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24001562</v>
       </c>
       <c r="B170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24001563</v>
       </c>
       <c r="B171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24001579</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24001585</v>
       </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24001589</v>
       </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25000604</v>
       </c>
       <c r="B175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>25000692</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>25000693</v>
       </c>
       <c r="B177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>25000731</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>25000732</v>
       </c>
       <c r="B179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>25000841</v>
       </c>
       <c r="B180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>25000852</v>
       </c>
       <c r="B181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>25000871</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>25000906</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>25000907</v>
       </c>
       <c r="B184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>25000908</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>25000925</v>
       </c>
       <c r="B186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>25000926</v>
       </c>
       <c r="B187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>25000927</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>25000932</v>
       </c>
       <c r="B189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>25000938</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>25000961</v>
       </c>
       <c r="B191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>25000965</v>
       </c>
       <c r="B192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>25000966</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>25000970</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>25000978</v>
       </c>
       <c r="B195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>25000997</v>
       </c>
       <c r="B196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>25000998</v>
       </c>
       <c r="B197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>25001008</v>
       </c>
       <c r="B198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>25001009</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>25001010</v>
       </c>
       <c r="B200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>25001035</v>
       </c>
       <c r="B201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>25001036</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>25001043</v>
       </c>
       <c r="B203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>25001045</v>
       </c>
       <c r="B204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>25001075</v>
       </c>
       <c r="B205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>25001077</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>27000003</v>
       </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>27000007</v>
       </c>
       <c r="B208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>27000012</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>27000014</v>
       </c>
       <c r="B210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>27000029</v>
       </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>27000038</v>
       </c>
       <c r="B212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>27000054</v>
       </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>27000072</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>27000077</v>
       </c>
       <c r="B215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>27000078</v>
       </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>27000081</v>
       </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>27000082</v>
       </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>27000089</v>
       </c>
       <c r="B219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>28000009</v>
       </c>
       <c r="B220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>28000020</v>
       </c>
       <c r="B221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>28000022</v>
       </c>
       <c r="B222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>28000026</v>
       </c>
       <c r="B223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>28000027</v>
       </c>
       <c r="B224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>28000028</v>
       </c>
       <c r="B225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>28000036</v>
       </c>
       <c r="B226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>28000043</v>
       </c>
       <c r="B227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>30000008</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>30000019</v>
       </c>
       <c r="B229" t="s">
         <v>228</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
